--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0FA00AC-FB8C-4519-9F85-DDC9E5E5B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4471C1-55CE-411A-A365-92EED7FAC9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>SlNo</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>String and Array and List</t>
+  </si>
+  <si>
+    <t>Java Traning</t>
+  </si>
+  <si>
+    <t>String and Array concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM Traing </t>
+  </si>
+  <si>
+    <t>Overview Diagram process</t>
+  </si>
+  <si>
+    <t>Java program</t>
+  </si>
+  <si>
+    <t>TaskCompleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM </t>
+  </si>
+  <si>
+    <t>VMS project Completed and checked</t>
   </si>
 </sst>
 </file>
@@ -139,20 +163,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,31 +492,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G11"/>
+  <dimension ref="C3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="36.5546875" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="3:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -506,91 +531,165 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>44410</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>44410</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44411</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>44411</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44412</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44412</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44413</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44413</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44414</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4471C1-55CE-411A-A365-92EED7FAC9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D09E77-CC0E-4092-B972-87A335CD341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>SlNo</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>VMS project Completed and checked</t>
+  </si>
+  <si>
+    <t>Embedded Sub-process concepts</t>
+  </si>
+  <si>
+    <t>Basic interview Question</t>
   </si>
 </sst>
 </file>
@@ -174,10 +180,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +501,7 @@
   <dimension ref="C3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,13 +516,13 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="3:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -644,13 +650,13 @@
       <c r="D12" s="5">
         <v>44413</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>6</v>
       </c>
     </row>
@@ -661,13 +667,13 @@
       <c r="D13" s="5">
         <v>44413</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>4</v>
       </c>
     </row>
@@ -678,18 +684,32 @@
       <c r="D14" s="5">
         <v>44414</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <v>9</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="D15" s="5">
+        <v>44414</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D09E77-CC0E-4092-B972-87A335CD341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{67D09E77-CC0E-4092-B972-87A335CD341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A194BA9-9C7F-46E4-A396-8BAE5443BCF6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>SlNo</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Basic interview Question</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Spring Boot MVC concepts</t>
+  </si>
+  <si>
+    <t>KIE-server-concepts</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G15"/>
+  <dimension ref="C3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,6 +720,50 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <v>44417</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <v>44417</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:G4"/>

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{67D09E77-CC0E-4092-B972-87A335CD341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A194BA9-9C7F-46E4-A396-8BAE5443BCF6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0907D3-BDEE-44C8-857B-4255072F25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>SlNo</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>KIE-server-concepts</t>
+  </si>
+  <si>
+    <t>Core Java Concepts</t>
+  </si>
+  <si>
+    <t>New project discussion</t>
+  </si>
+  <si>
+    <t>Database connection</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Login page and Registration</t>
   </si>
 </sst>
 </file>
@@ -507,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G19"/>
+  <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,7 +736,9 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
       <c r="D16" s="5">
         <v>44417</v>
       </c>
@@ -736,7 +753,9 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>11</v>
+      </c>
       <c r="D17" s="5">
         <v>44417</v>
       </c>
@@ -751,18 +770,124 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="4">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="4">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44418</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44419</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="4">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44419</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="4">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44419</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="4">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0907D3-BDEE-44C8-857B-4255072F25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{5D0907D3-BDEE-44C8-857B-4255072F25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE534E5B-37FD-4614-A8E3-676D23C3B09A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>SlNo</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Login page and Registration</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>CMS project discussion</t>
+  </si>
+  <si>
+    <t>spring boot concepts</t>
+  </si>
+  <si>
+    <t>Cms project completed and discusstion</t>
   </si>
 </sst>
 </file>
@@ -525,7 +537,7 @@
   <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,26 +862,48 @@
       <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>17</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="5">
+        <v>44420</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="4">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44421</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
+      <c r="C25" s="4">
+        <v>19</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{5D0907D3-BDEE-44C8-857B-4255072F25BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE534E5B-37FD-4614-A8E3-676D23C3B09A}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E8F3D00C-8D6E-4C7D-B751-6ED4339E9D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF72E135-4C9E-4FB9-A3A4-9B5A1E3363C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>SlNo</t>
   </si>
@@ -127,6 +127,30 @@
   </si>
   <si>
     <t>Cms project completed and discusstion</t>
+  </si>
+  <si>
+    <t>H2 connection</t>
+  </si>
+  <si>
+    <t>Spring boot CMS project design</t>
+  </si>
+  <si>
+    <t>CMS project</t>
+  </si>
+  <si>
+    <t>HTML CSS</t>
+  </si>
+  <si>
+    <t>Frond-End Design</t>
+  </si>
+  <si>
+    <t>Login and Registration Screen</t>
+  </si>
+  <si>
+    <t>DataBase Conncetion</t>
+  </si>
+  <si>
+    <t>CMS project (MSql)</t>
   </si>
 </sst>
 </file>
@@ -534,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G27"/>
+  <dimension ref="C3:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,24 +928,95 @@
       <c r="C25" s="4">
         <v>19</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="D25" s="5">
+        <v>44421</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="4">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44424</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="C27" s="4">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44425</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C28" s="6">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44425</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="6">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44426</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="6">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{E8F3D00C-8D6E-4C7D-B751-6ED4339E9D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF72E135-4C9E-4FB9-A3A4-9B5A1E3363C1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAB4F4-A9B4-4121-83D8-5F050494CB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>CMS project (MSql)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring boot concepts </t>
+  </si>
+  <si>
+    <t>CMS Project discussion and Database connection</t>
+  </si>
+  <si>
+    <t>Learn HTML and CSS</t>
+  </si>
+  <si>
+    <t>CMS project Front-End design</t>
   </si>
 </sst>
 </file>
@@ -229,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +255,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G30"/>
+  <dimension ref="C3:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,14 +1024,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>24</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="D30" s="5">
+        <v>44427</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="6">
+        <v>25</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44428</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FAB4F4-A9B4-4121-83D8-5F050494CB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A0FAB4F4-A9B4-4121-83D8-5F050494CB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2E8539-3BFE-4FFC-BFBB-E4728E9CDD6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>SlNo</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>CMS project Front-End design</t>
+  </si>
+  <si>
+    <t>Learn VMS coding</t>
+  </si>
+  <si>
+    <t>VMS</t>
   </si>
 </sst>
 </file>
@@ -253,11 +259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G31"/>
+  <dimension ref="C3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,13 +597,13 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="3:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1034,7 +1040,7 @@
       <c r="E30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G30" s="4">
@@ -1057,6 +1063,37 @@
       <c r="G31" s="4">
         <v>5</v>
       </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="6">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44428</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A0FAB4F4-A9B4-4121-83D8-5F050494CB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD2E8539-3BFE-4FFC-BFBB-E4728E9CDD6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCBDE4-AA43-4164-A0DE-74BACA0D2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>SlNo</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>VMS</t>
+  </si>
+  <si>
+    <t>VMS project discusstion</t>
+  </si>
+  <si>
+    <t>Drools</t>
+  </si>
+  <si>
+    <t>Drools program</t>
   </si>
 </sst>
 </file>
@@ -582,7 +591,7 @@
   <dimension ref="C3:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,18 +1091,38 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="C33" s="4">
+        <v>27</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44431</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="C34" s="4">
+        <v>28</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44431</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DCBDE4-AA43-4164-A0DE-74BACA0D2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{83DCBDE4-AA43-4164-A0DE-74BACA0D2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DF68737-E6A0-4F01-9E55-84EDF461602C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>SlNo</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>Drools program</t>
+  </si>
+  <si>
+    <t>Insert Drools program</t>
+  </si>
+  <si>
+    <t>Spring and Drools</t>
+  </si>
+  <si>
+    <t>JBPM flow diagram and workflow</t>
+  </si>
+  <si>
+    <t>insert and workflow</t>
   </si>
 </sst>
 </file>
@@ -588,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G34"/>
+  <dimension ref="C3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1136,85 @@
         <v>4</v>
       </c>
     </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="4">
+        <v>29</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44432</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="6">
+        <v>30</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44433</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="6">
+        <v>31</v>
+      </c>
+      <c r="D37" s="5">
+        <v>44434</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:G4"/>

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{83DCBDE4-AA43-4164-A0DE-74BACA0D2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DF68737-E6A0-4F01-9E55-84EDF461602C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4C93B-07E5-4A63-9268-47781D4C0FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>SlNo</t>
   </si>
@@ -190,6 +190,18 @@
   </si>
   <si>
     <t>insert and workflow</t>
+  </si>
+  <si>
+    <t>Spring boot and Drools concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java 8 Features </t>
+  </si>
+  <si>
+    <t>Traing  Java 8 Features</t>
+  </si>
+  <si>
+    <t>Learing java 8 Features</t>
   </si>
 </sst>
 </file>
@@ -602,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
   <dimension ref="C3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,32 +1200,72 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="C38" s="4">
+        <v>32</v>
+      </c>
+      <c r="D38" s="5">
+        <v>44435</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="C39" s="4">
+        <v>33</v>
+      </c>
+      <c r="D39" s="5">
+        <v>44435</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="C40" s="4">
+        <v>34</v>
+      </c>
+      <c r="D40" s="5">
+        <v>44436</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="C41" s="4">
+        <v>35</v>
+      </c>
+      <c r="D41" s="5">
+        <v>44436</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4C93B-07E5-4A63-9268-47781D4C0FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492486B-2CA8-4F99-9AD8-8BB4529D9D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>SlNo</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Learing java 8 Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Traning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">File Handing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java </t>
   </si>
 </sst>
 </file>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G41"/>
+  <dimension ref="C3:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1267,6 +1276,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="6">
+        <v>36</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44437</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="4">
+        <v>37</v>
+      </c>
+      <c r="D43" s="5">
+        <v>44438</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:G4"/>

--- a/Vinothini/Time.Sheet(Aug).xlsx
+++ b/Vinothini/Time.Sheet(Aug).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2492486B-2CA8-4F99-9AD8-8BB4529D9D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C3282D-1D28-4517-A704-41D9B11F2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BACC39BB-75BB-4B91-A832-1347706B2E1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>SlNo</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t xml:space="preserve">Java </t>
+  </si>
+  <si>
+    <t>JBPM Traning</t>
+  </si>
+  <si>
+    <t>Excepstion Handling and Custom work item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workout Excepstion Handing </t>
   </si>
 </sst>
 </file>
@@ -289,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59C6B4A-C92A-48AE-A645-178CC6F7AE05}">
-  <dimension ref="C3:G43"/>
+  <dimension ref="C3:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,6 +1322,40 @@
         <v>6</v>
       </c>
     </row>
+    <row r="44" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="4">
+        <v>38</v>
+      </c>
+      <c r="D44" s="5">
+        <v>44440</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="4">
+        <v>39</v>
+      </c>
+      <c r="D45" s="5">
+        <v>44440</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:G4"/>
